--- a/xls/TABLE_抽卡1.xlsx
+++ b/xls/TABLE_抽卡1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>英雄id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +456,7 @@
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -470,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
